--- a/catalogos/2.catalogo_2.xlsx
+++ b/catalogos/2.catalogo_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liderdeproyectos/Desktop/caramelo-main/catalogos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liderdecelula/Desktop/Escritorio/Encuesta/caramelo-main_229P1_Scotiabank/catalogos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{932E6F4D-4510-7B4D-A8EE-C97ED49B6756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650B47AD-0B9A-694C-9BEA-27FFECCE0F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="26940" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogo_2" sheetId="9" r:id="rId1"/>
@@ -37,24 +37,6 @@
     <t>Cerca de lograrlo</t>
   </si>
   <si>
-    <t>Logrado, ¡amerita celebrar!</t>
-  </si>
-  <si>
-    <t>Me enorgullece aportar mi trabajo para lograr los resultados.</t>
-  </si>
-  <si>
-    <t>Estoy orgulloso de trabajar en esta empresa y mis colegas se sienten orgullosos de que yo esté aquí.</t>
-  </si>
-  <si>
-    <t>Me siento orgulloso de cumplir con los objetivos que me han indicado.</t>
-  </si>
-  <si>
-    <t>Todos los días trabajo para seguir haciendo lo mejor que sé hacer que es justamente lo que hago aquí.</t>
-  </si>
-  <si>
-    <t>Me siento pleno con el momento personal y profesional que estoy viviendo.</t>
-  </si>
-  <si>
     <t>El propósito que mueve mi vida es marcar la diferencia y dejar huella en el camino que me he planteado.</t>
   </si>
   <si>
@@ -103,9 +85,6 @@
     <t>Todos los días trabajo para aportar con mis ideas y hacer mi trabajo impecablemente.</t>
   </si>
   <si>
-    <t>Sé lo que quiero en la vida y tengo claro la manera en que la organización aporta en este plan.</t>
-  </si>
-  <si>
     <t>Mi propósito de vida y el propósito de la organización avanzan en la misma dirección.</t>
   </si>
   <si>
@@ -118,9 +97,6 @@
     <t>De manera periódica soy retroalimentado y retroalimento a los demás con respecto a su desempeño.</t>
   </si>
   <si>
-    <t>Los líderes que trabajan aquí aportan y marcan la diferencia por su excelencia humana y profesional.</t>
-  </si>
-  <si>
     <t>Propicio y participo de encuentros para compartir como equipo.</t>
   </si>
   <si>
@@ -142,15 +118,9 @@
     <t>Tomo decisiones privilegiando el bienestar de los grupos de interés.</t>
   </si>
   <si>
-    <t>Yo estoy a cargo de los resultados y tengo el deber de preguntar lo que no entienda.</t>
-  </si>
-  <si>
     <t>Me gusta ayudar a los demás.</t>
   </si>
   <si>
-    <t>Actúo para superar a los competidores.</t>
-  </si>
-  <si>
     <t>Todos los días vengo al trabajo para avanzar un paso adelante en los retos que tenemos como organización.</t>
   </si>
   <si>
@@ -190,15 +160,9 @@
     <t>Se me facilita lograr los objetivos cuando está claro el beneficio que tendrá.</t>
   </si>
   <si>
-    <t>Me cuesta cambiar cuando esta acción me distrae del objetivo.</t>
-  </si>
-  <si>
     <t>Los datos son la fuente principal de mis decisiones.</t>
   </si>
   <si>
-    <t>Es importante que los jefes se pongan de acuerdo en las metas e indicadores para que podamos tener claro qué hacer y cómo.</t>
-  </si>
-  <si>
     <t>Me gusta cuando está clara la contribución de cada uno en los resultados.</t>
   </si>
   <si>
@@ -226,9 +190,6 @@
     <t>Los líderes de la organización saben lo que hacen.</t>
   </si>
   <si>
-    <t>Los espacios para compartir son buenos momentos de esparcimiento aunque quitan tiempo valioso para avanzar en las tareas.</t>
-  </si>
-  <si>
     <t>Las personas deben explicar con claridad lo que quieren para yo poder atender su expectativa.</t>
   </si>
   <si>
@@ -244,72 +205,39 @@
     <t>Lo más importante para mí es lo que está sucediendo en el aquí y ahora. Me baso en la situación real de las cosas, prestando atención a los detalles.</t>
   </si>
   <si>
-    <t>Actúo para cumplir lo que me han confiado.</t>
-  </si>
-  <si>
     <t>puntaje</t>
   </si>
   <si>
     <t>Respuestas</t>
   </si>
   <si>
-    <t>Mi aporte personal enriquece la personalidad de la organización y se alinea con nuestra promesa de valor.</t>
-  </si>
-  <si>
-    <t>Soy una persona confiable .</t>
-  </si>
-  <si>
-    <t>Lo que hago en esta organización es relevante para la sociedad y para todos los que trabajan conmigo.</t>
-  </si>
-  <si>
     <t>Nuestros espacios generan cercanía y favorecen resultados sobresalientes.</t>
   </si>
   <si>
-    <t>Con mi trabajo y lo que hace la organización estamos aportando al desarrollo de nuestro país.</t>
-  </si>
-  <si>
     <t>Cada acción cuenta. Cuido el medio ambiente, los recursos y los detalles en todos mis actos.</t>
   </si>
   <si>
     <t>Actúo para servir en todo lo que hago.</t>
   </si>
   <si>
-    <t>El ADN de nuestra empresa se vive en todo lo que hacemos.</t>
-  </si>
-  <si>
     <t>Soy una persona de ideas y visión.</t>
   </si>
   <si>
     <t>Lo que hago en esta organización agrega valor a la sociedad.</t>
   </si>
   <si>
-    <t>Las locaciones de la organización favorecen el bienestar y comodidad.</t>
-  </si>
-  <si>
-    <t>Con mi trabajo estoy aportando conocimientos y beneficios a la sociedad.</t>
-  </si>
-  <si>
     <t>Cuidar el planeta exige renuncias y estoy dispuesto a poner de mi parte.</t>
   </si>
   <si>
     <t>Sirvo a los demás para que nuestra organización se destaque.</t>
   </si>
   <si>
-    <t>La personalidad de la organización es múltiple y tiene muchas facetas que nos permiten lograr los objetivos.</t>
-  </si>
-  <si>
     <t>Soy una persona de resultados.</t>
   </si>
   <si>
     <t>Lo que hago en esta organización es relevante para el logro de mis objetivos en la vida.</t>
   </si>
   <si>
-    <t>Las locaciones cuentan con los recursos necesarios para lograr los objetivos que me han confiado.</t>
-  </si>
-  <si>
-    <t>Es importante para mí, que con mi trabajo, a la organización le vaya bien pues así yo también estaré bien.</t>
-  </si>
-  <si>
     <t>Las autoridades podrían tener mayor compromiso para que se reversen los impactos ambientales.</t>
   </si>
   <si>
@@ -328,9 +256,6 @@
     <t>El espacio de trabajo se ajusta pero podría ser mejor.</t>
   </si>
   <si>
-    <t>Es importante para mi, cumplir con mi trabajo, para que la empresa siga adelante y yo siga teniendo empleo.</t>
-  </si>
-  <si>
     <t>Si las personas no utilizan tanto su carro y reciclan, podrían resolverse los problemas ecológicos.</t>
   </si>
   <si>
@@ -352,10 +277,85 @@
     <t>Ayudo a los demás porque uno nunca sabe cuando los va a necesitar.</t>
   </si>
   <si>
-    <t>Mis conversaciones son principalmente con mi familia y amigos. Prefiero no interactuar mucho en la organización.</t>
-  </si>
-  <si>
-    <t>Es muy importante para mi llevarme bien con las personas.</t>
+    <t>Logrado frecuentemente</t>
+  </si>
+  <si>
+    <t>Todos los días trabajo para seguir haciendo lo mejor que sé hacer, que es justamente lo que hago aquí.</t>
+  </si>
+  <si>
+    <t>Siento plenitud con el momento personal y profesional que estoy viviendo.</t>
+  </si>
+  <si>
+    <t>Siento orgullo de trabajar en esta empresa y mis colegas se sienten orgullosos de que yo esté aquí.</t>
+  </si>
+  <si>
+    <t>Mi aporte personal enriquece la personalidad de la empresa y se alinea con nuestra promesa de valor.</t>
+  </si>
+  <si>
+    <t>Soy una persona confiable.</t>
+  </si>
+  <si>
+    <t>Lo que hago en esta organización es relevante para todos los que trabajan conmigo.</t>
+  </si>
+  <si>
+    <t>Con mi trabajo y lo que hace la organización estamos aportando al desarrollo de la sociedad.</t>
+  </si>
+  <si>
+    <t>Sé lo que quiero en la vida y tengo clara la manera en la que la organización aporta a este plan.</t>
+  </si>
+  <si>
+    <t>La esencia de nuestra empresa se manifiesta en todo lo que hacemos.</t>
+  </si>
+  <si>
+    <t>Los líderes que trabajan aquí aportan y marcan la diferencia por su calidad humana y su desempeño profesional</t>
+  </si>
+  <si>
+    <t>Los espacios de la organización favorecen el bienestar y comodidad.</t>
+  </si>
+  <si>
+    <t>Con mi trabajo estoy aportando beneficios a la organización.</t>
+  </si>
+  <si>
+    <t>Yo estoy a cargo de los resultados y tengo el deber de consultar información sobre estos resultados si encuentro algo que no entiendo.</t>
+  </si>
+  <si>
+    <t>Actúo para superar a los competidores y al mercado.</t>
+  </si>
+  <si>
+    <t>Me enorgullece aportar al logro de los objetivos con mi trabajo.</t>
+  </si>
+  <si>
+    <t>La personalidad de la empresa es múltiple y tiene muchas facetas que nos permiten lograr los objetivos.</t>
+  </si>
+  <si>
+    <t>Los espacios de la organización cuentan con los recursos necesarios para lograr los objetivos que me han confiado.</t>
+  </si>
+  <si>
+    <t>Me cuesta cambiar de actividad cuando siento que esta podría distraerme de mis objetivos.</t>
+  </si>
+  <si>
+    <t>Es importante para mí, que con mi trabajo pueda sumar para que a la organización le vaya bien, pues así yo también estaré bien.</t>
+  </si>
+  <si>
+    <t>Es importante que los líderes se pongan de acuerdo en las metas e indicadores para que podamos tener claro qué hacer y cómo.</t>
+  </si>
+  <si>
+    <t>Siento orgullo de cumplir con los objetivos que me han indicado.</t>
+  </si>
+  <si>
+    <t>Los espacios de esparcimiento son buenos para compartir, aunque quitan tiempo valioso para avanzar en las tareas.</t>
+  </si>
+  <si>
+    <t>Mis conversaciones son principalmente por fuera. Prefiero no interactuar mucho con las personas de la organización.</t>
+  </si>
+  <si>
+    <t>Es importante para mí hacer bien mi trabajo para que la empresa siga avanzando y yo siga teniendo empleo.</t>
+  </si>
+  <si>
+    <t>Es muy importante para mí llevarme bien con las personas.</t>
+  </si>
+  <si>
+    <t>Actúo para cumplir lo que me han asignado.</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,15 +429,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,856 +657,856 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCC2049-2CA3-4976-BCE7-6BB30E5333B3}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="126.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>74</v>
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2">
+        <v>88</v>
+      </c>
+      <c r="B10" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="2">
+        <v>89</v>
+      </c>
+      <c r="B14" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="2">
+        <v>90</v>
+      </c>
+      <c r="B17" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="2">
+        <v>62</v>
+      </c>
+      <c r="B19" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
+        <v>17</v>
+      </c>
+      <c r="B24" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2">
+        <v>92</v>
+      </c>
+      <c r="B29" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="A31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2">
+        <v>22</v>
+      </c>
+      <c r="B33" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="A35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="2">
+        <v>93</v>
+      </c>
+      <c r="B36" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="2">
+        <v>24</v>
+      </c>
+      <c r="B38" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="A39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="2">
+        <v>65</v>
+      </c>
+      <c r="B40" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="2">
+        <v>66</v>
+      </c>
+      <c r="B43" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="2">
+        <v>95</v>
+      </c>
+      <c r="B45" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="A46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="A47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="A48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="A50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="2">
+        <v>67</v>
+      </c>
+      <c r="B51" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="A52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="A53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="A54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="A55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="A56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="A57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="A58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="2">
+        <v>36</v>
+      </c>
+      <c r="B59" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="A60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="A61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="2">
+        <v>100</v>
+      </c>
+      <c r="B62" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="A63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="2">
+        <v>40</v>
+      </c>
+      <c r="B64" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="2">
+      <c r="A65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="2">
+        <v>69</v>
+      </c>
+      <c r="B66" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="2">
+        <v>43</v>
+      </c>
+      <c r="B68" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="2">
+        <v>70</v>
+      </c>
+      <c r="B69" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="A70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71" s="2">
+        <v>101</v>
+      </c>
+      <c r="B71" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="2">
+      <c r="A72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="2">
+      <c r="A73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" s="2">
+      <c r="A74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="2">
+      <c r="A75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="A76" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="A77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="2">
+      <c r="A78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B79" s="2">
+      <c r="A79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" s="2">
+      <c r="A80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" s="2">
+        <v>72</v>
+      </c>
+      <c r="B81" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" s="2">
+      <c r="A82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="A83" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="A84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" s="2">
+        <v>51</v>
+      </c>
+      <c r="B85" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B86" s="2">
+      <c r="A86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="2">
+      <c r="A87" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="2">
+        <v>73</v>
+      </c>
+      <c r="B88" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B89" s="2">
+      <c r="A89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B90" s="2">
+        <v>106</v>
+      </c>
+      <c r="B90" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="2">
+      <c r="A91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" s="2">
+        <v>74</v>
+      </c>
+      <c r="B92" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="A93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B94" s="2">
+        <v>56</v>
+      </c>
+      <c r="B94" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="2">
+        <v>75</v>
+      </c>
+      <c r="B95" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="2">
+      <c r="A96" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="2">
+        <v>76</v>
+      </c>
+      <c r="B97" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="A98" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B99" s="2">
+      <c r="A99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="2">
+      <c r="A100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="A101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B102" s="2">
-        <v>1</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="5"/>
+      <c r="A102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2">
+        <v>77</v>
+      </c>
+      <c r="B103" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="2">
+      <c r="A104" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B105" s="2">
+      <c r="A105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1506,7 +1514,7 @@
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1514,7 +1522,7 @@
       <c r="A107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1522,7 +1530,7 @@
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1530,15 +1538,15 @@
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="2">
+        <v>84</v>
+      </c>
+      <c r="B110" s="6">
         <v>5</v>
       </c>
     </row>
